--- a/biology/Biochimie/Phénylalanine_ammonia-lyase/Phénylalanine_ammonia-lyase.xlsx
+++ b/biology/Biochimie/Phénylalanine_ammonia-lyase/Phénylalanine_ammonia-lyase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nylalanine_ammonia-lyase</t>
+          <t>Phénylalanine_ammonia-lyase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phénylalanine ammonia-lyase (PAL), EC 4.3.1.24, est une enzyme de type lyase présente chez les plantes et les mycètes (champignons). La PAL catalyse la conversion de l'acide aminé phénylalanine en acide cinnamique, avec libération d'ammoniac (NH3) :
 L-phénylalanine  
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nylalanine_ammonia-lyase</t>
+          <t>Phénylalanine_ammonia-lyase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enzyme est codée par trois ou quatre gènes, il existe donc dans de nombreuses plantes plusieurs isoformes paralogues. À la date de 2007,  5 structures ont été identifiées pour cette classe d'enzyme, avec les codes PDB 1T6J, 1T6P, 1W27, 1Y2M,, et 2NYF.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enzyme est codée par trois ou quatre gènes, il existe donc dans de nombreuses plantes plusieurs isoformes paralogues. À la date de 2007,  5 structures ont été identifiées pour cette classe d'enzyme, avec les codes PDB 1T6J, 1T6P, 1W27, 1Y2M et 2NYF.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nylalanine_ammonia-lyase</t>
+          <t>Phénylalanine_ammonia-lyase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Intérêt thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'administration de phénylalanine ammonia-lyase à des patients atteints de Phénylcétonurie est actuellement étudiée. En effet, elle permettrait de dégrader la principale cause des symptômes de cette maladie : l'accumulation de Phénylalanine. Cette stratégie thérapeutique potentielle permettrait ainsi de remplacer le régime actuellement imposé aux patients, qui est particulièrement contraignant et difficilement observable.
 </t>
